--- a/interview.xlsx
+++ b/interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saydin/Projekte/enginnering-ml-systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB172C9F-6D59-9D4C-9F60-4767182BF90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684EF64-237F-C747-B770-38D1F60FF318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{1FF62C93-9DA4-4762-9A21-096270610EB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>The Crisp-DM process model is widely used. And that is actually what we use. That is, first understand the data through exploration, set up hypotheses, develop the model, test the model and, if necessary, sharpen the hypotheses or so and go back into the circle. And then deployment, if it is good or build on the deployed model and iteratively bring in improvements. There are also different versions. Sometimes deployment is part of the circle and sometimes it is outside. We don't really do separate prototyping, but it's often the case that it then really goes into production. Of course, some things are discarded, but that is rarely the case, at least in my experience. The first time you do the cycle takes the most time, because you first have to really understand the data and deal with it and initially develop a model. The subsequent cycles are then simply shorter, but yes, basically it's develop, release, notice that maybe there are still weaknesses somewhere, e.g. through monitoring or simply things that you already notice in the development that there might still be potential for improvement. We go back to experimentation when we notice that there are weaknesses in monitoring or that we want to try out a new idea. What can also happen from time to time is that either requirements change or requirements are added. In other words, simply by using the system in live operation, we either recognize or stakeholders recognize that certain aspects are perhaps still missing or should be different. This also leads to further development. It is less common, but also possible, to get new input via conferences or papers and then try out whether existing solutions can be improved as a result. It's actually always about improving metrics and KPIs that you have defined for yourself, and in the best case scenario you go back into further development.</t>
   </si>
@@ -43,16 +43,10 @@
     <t>We are already tempted to tackle the prototype again. So notebooks are only really used in the very first phase to analyze models. Ideally, this results in a package where only functions such as training are accessed from notebooks. Therefore, if you develop that further, you also have to adapt the package to it. Of course, this is not always the case, but I think the ideal process is to use production-oriented code already in development. This saves time afterwards and makes development in the team easier and more accessible. The current setup is that notebooks are part of the package, but you could keep it separate. But you go back into the package, you either develop on the notebook or depending on how it's customized, you can also - these repos also lead to pipelines - deploy the models or the product with a corresponding system around it (customize experiments, etc.) you might only have to customize small things and then you can deploy that into a dev system and then compare corresponding things. So this going back to notebooks I don't think is absolutely necessary, but in my opinion is super individual from person to person and from product to product. Ideally, everything is versioned so that you can see these differences relatively quickly between a version that is running in production, so to speak, and a version that is running in a development environment, and afterwards you can ideally say that if certain tests or other requirements are met, you actually only have to press a button in the development environment to deploy to the production system. In the current project we are actually not yet so far, there are a lot of new things and there is little further development, because we are still under construction, but there is - you read more often that MLflow is in use and provides, for example, such a model registry, to then say, if the further development is better, then we only run a release pipeline, then that is on Prod. We do not yet, but imagine that as an ideal procedure.  From my point of view a Jupyter notebook is super important only in the early development phase to get first insights. Once you are at a state that is "clean" according to software engineering standards, then you can also do relatively much without notebooks, so even changes when you are now working with configurations and only have to adjust small things in them to run different models against each other. Maybe you have to add a function or edit a bit but then you don't have to change 1000 lines of code again but only 50 or small x. I would see notebooks more as a tool for testing. It can also be that you try a completely new algorithm or get new data and have to adapt something. This model is then a package and you then adapt this package. That's why you don't have so many versions, or they don't diverge so much.</t>
   </si>
   <si>
-    <t>So I personally am a fan of VSCode, which is somewhere between editor and IDE There are also Jupyter Notebooks integrated. So I continue to work with Jupyter Notebooks or with Jupyter Lab, which is now becoming more popular I think. I program completely in Python, I haven't used any other language for a long time. And otherwise standard tools like Git, if necessary or mostly some cloud systems for data access or to store results. And otherwise the standard Python libraries like scikit-learn and visualization libraries.</t>
-  </si>
-  <si>
     <t>What I find super difficult are model evaluations. It's more of a downstream step, but it's also important for prototyping. I think there is still too little to evaluate models consistently. This is a point where we have difficulties in the project, because everyone evaluates differently and from my point of view there is no clean tuning, which simplifies the whole thing. So the classic train, validation, test split on data sets - some don't do validation, some do. Then you compare models with different expressions in datasets. Something else has to happen there. It's problem-dependent, but I think you can simplify things in different subareas, whether classification models, TS prediction models. There's super little there to support you. Each library provides functions, methods are defined for the model classes, but there is nothing across the board.</t>
   </si>
   <si>
     <t>There are actually already many solutions in the sense of workarounds, but you have to make them available for yourself first, e.g. start a local MLflow instance for experiment tracking, do the imports and so on and then write some code and then use the notebook with it accordingly. You just have to know how.  Scalability is another important point. You currently have to switch between different libraries if you want to scale. If the Jupyter Notebook could do that by itself, so to speak, now I have a small amount of data here and later a large amount of data and that would still go through the same way in a cloud environment.  I don't see Continuous Integration as a good practice for Jupyter Notebooks. Data quality checks would still be practical.  The rest I would claim already exists somehow that you can use with appropriate preparations. But they are not accessible for all Data Scientists. But that doesn't depend so much on the technical background, but more on the motivation to further educate oneself. I think if you actively pursue it, then the stuff is already quite accessible, although you can certainly do more. You have to have the motivation to then keep looking for new things or try things out, and that varies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If some of the requirements change, like if you have some new additional requirements that your client would like to explore, then you would have to go back to the prototyping phase and start developing from scratch. So, you start a new prototype but incorporate the knowledge and code snippets from the first POC. Then you explore some new ideas on how to deal with the problem, maybe a new approach, a new algorithm or so on. This also happens when your data contains new information, like some new meta data. I also had a case where we worked on a POC but suddenly they came and tell us that it’s not the correct data set. We got data from a completely different source, so different preprocessing and different way of identifying the specific fields and so on. We adapted our original POC to the new situation. </t>
   </si>
   <si>
     <t xml:space="preserve">It is a really huge discussion. First of all, the data set that you usually have in the industry is no comparison to the standard datasets, which are basically preprocessed and prearranged with correct sampling, so completely different. So usually, the raw data needs a lot of cleaning and identifying data quality issues. This is the first step, understanding your data. Then you also have some talks with domain experts that know the data better. And you define the business requirements of your project. Then the goal of the project is clear. And then the prototyping starts with Jupyter Notebooks for Data Scientists, I think it’s very friendly, very easy, you can get results very easy like visualizations. Also I like to use Tableau a lot lately in order to get some fast analytics. The process is not really standardized because it also depends on the problem. So if you want to model a specific feature then you would start exploring and engineering this feature. It’s very important that you understand what your data means. And then gradually proceed with feature engineering and as soon as you have all your features then you move to starting modeling some models. Especially for the data analysis, there is no standard process. And then after modelling you calculate some metrics in case it’s a supervised problem and then see “ok, I reached the threshold for the accuracy that I wanted” and then you move on with the deployment. Of course accuracy is not enough, you also have other metrics like precision, recall. If all satisfy some threshold then you would move to production. But if it’s unsupervised it’s harder. You need a lot of feedback from people who are evaluating because you don’t have a ground truth. I didn’t have experienced this amazing thing of going to production with Jupyter Notebooks like Netflix does. So all the time it is scripts that you transfer like after the prototyping is done and you know what needs to be done and everything is working. Then you take the components that are needed, transformed to a script. Then you basically go with python scripts and usually you are generating the model which is stored in some artifactory like jfrog. And then you build a pipeline out of it. </t>
@@ -105,9 +99,6 @@
   </si>
   <si>
     <t>But yes, so we definitely take the data that we have and check whether this data is hopefully available, see what is the task at all? So we have labels, which is typically not the case. Yes, if that's the case, you take a very rough look at how big they are, just load small things into the notebook. For larger things, you might have to think about reducing them to a small data set and then looking at the data set to see which columns I have data, types, nans? Yes, just plot a few distributions typically. Can the profiling maybe run over it, if you want to have on the quick just somehow diagrams or paint yourself a few first diagrams, depending on how much time I see for myself also, I would build me maybe also somehow so a small mini dashboard to be able to go through the things better. Is now of course the question what kind of model we have there? Yes, throw the typical approaches on it, if it's a classification and regression probably just throw a grading boosting or regressor on it, if it's clustering you just have to see how big it is and so on if you somehow reduce some dimensionality, run Youmap for example on it and then KMeans or whatever you just have to see what kind of problem it is exactly. If it is supervised and I have a bit of time as I said and want to run several things, then I would just connect to MLFlow and log the parameters and metrics. Depending on how much time is then and how successful that is, I would perhaps also throw one or the other AutoML tool on it, in order not to model too much myself, but to take my base line with it and see how that works. Typically, you discover relatively quickly any flaws that you look at features and then you see ok actually only this and only that feature is relevant and then in reality is just mostly that you then still have to talk to the customer, because no idea the important data is not there or you wonder, there is still something missing or somehow something. Then compare metrics until my model has what is executable in a reasonable time. Theoretically you could do stacking, build ensembles, but factually you don't really do that. And depending on what the desire is, run that already once or if you want to have a service, either build something by hand with FastAPI or similar Python tool or also use ML serving directly. Yeah, and then models could have given the predictions or given clusters back or something. Well, if you still have such a pipeline, I would actually relatively, so factually it is yes ne time question. You actually always have a certain time budget, it's never infinite. So you just look ok how much time do I have approximately and then look that you build with a little buffer before, in any case first the service, because you can, as long as you do not change now later completely everything somehow, you can exchange the model relatively easily. That means you first build a serving layer. And if there is still time at the end, then you just continue to build the model until you arrive at one that is optimized according to the metrics that you want to optimize, whether that is purely MSE or whether you then also maybe pay attention to something, I don't know, maybe you also have to pay attention to fairness or something, I've never actually had that, but it could also be or yes, that you then also pay attention to these metrics. In the end, you choose the model that works best in the metrics and that can be executed in a reasonable time. It always depends on the requirements of the customer. Exactly, so I would definitely not build the serving pipeline right to the end, but I mean, if the model can't deliver any forecasts afterwards, then I would actually try relatively early to build the pipeline through once at the beginning, so that it's already in place, and then rather exchange the model in there bit by bit. I start with the notebook, develop my first methods, then put the whole thing into PyCharm, typically build a class in there, develop it and execute it from the notebook for a while, so that in the end I only execute the train function and the predict function or something like that and then what I do is I just replace my notebook with a script that just calls everything once and maybe put it all into a Docker container frequently and then execute that. Exactly so I developed so the first little approaches in the beginning, and as soon as a function, let's say, from the gut feeling has more than 10 lines or I somehow need a class or something, then I take that, pack the whole thing once over into PyCharm and make my own package with it. So copy-paste into the package and then quasi in Jupiter I then always call the auto-reload magic, if you know it and then you have quasi the import of your package and then you just have your class and can change it in PyCharm, but the changes immediately in the notebook there, that's my workflow. When developing I like to work in the notebook, because you have everything right there and trigger things from there but of course, if it really should go into production, I don't think it's good to do things in the notebook. So I would just throw those 2, 3 lines, hopefully that's it, define some input variables, call my training class and maybe save the return value or something, into a script and put that into a Docker container. We have the notebooks and the packages in the same repo, plus there's a Docker file to build that, a Docker compose typically to just run the thing reproducibly and typically either ne in environment.yml for Conda or a pyproject file for Poetry.</t>
-  </si>
-  <si>
-    <t>So exactly tools: Jupiter Notebook, PyCharm, tracking of experiments with MLFlow typically around environment variable management with Conda or Poetry typically. Typically pre-commit configs with Code Black for codestyling, iSort to structure imports and so on, so mainly if you're working with someone, then mainly so you don't put stupid changes in each other, but on your own you can sometimes be less than consistent. Typically I don't set everything to new every time, but with Cookie-Cutter. For me PyScaffold is too big, it's too heavy, it gives me too much stuff I don't want and puts a lot of files in my repo that I don't need. I prefer to have this very custom mostly tailored to me.</t>
   </si>
   <si>
     <t>So you're in your own bubble and you don't see the big ones now. What I immediately think of are various little things that bother me about individual tools, about MLflow, some bugs and things like that where I say that things are not as mature as I would like them to be, where a few things are missing or smaller things don't work. I think it's important to consider where you still lose a lot of time, that is, with what you spend a lot of time and typically that is not in dealing with the tools that you know, but then again to understand the data correctly and understand why your model now works so or does not work. Data quality is often said to be an issue, there are, as I said, a few nice tools that try to take something off, but that's just not so that they tell me now exactly you have in the data set the lines that are all funny or something else. A second issue is, which is also an issue in any case, at least then my tools stack is perhaps not optimal for, typically you start with something small like Pandas and then you have to change to the Dask and then you have to rewrite just somehow felt half functions, because that is then somehow different and is not so completely compatible. Yes, scaling is, if you build it that way from the beginning, it's all ok, but typically requirements evolve during the project.  I have my tools locally, I like to work locally, I don't like to work directly in the cloud, because I have somehow adapted everything better to me locally. And now you have the whole thing, because the big data set you pulled sample at the beginning and it all worked nicely and now you want to run everything and that just doesn't work at all with. Time just doesn't run forever and then I haven't found the ultimate solution for me yet, so what I then quite typically actually often do is I just go into the cloud, I start my notebook instance just like locally on, scales the nice big with the GPU and clone my repo and also set up everything there again so a bit. And then make a few runs there and develop locally again, but there I have to push locally again and again and then pullen there again and somehow that's not so nice. I would prefer to have the memory and the CPU and the GPU that I can simply get in the cloud here locally in my environment. So here's this shift from I have it locally and then I have to get it in the cloud because I don't have the performance locally. That's still not well solved for me so I don't have a good solution there yet. Yes, otherwise, as I said, AutoML is a topic where I'm not yet as fit as I would like to be, so I think there's a lot going on, but of course it's also very computing-intensive, then you probably have to quickly come back to another problem.</t>
@@ -125,14 +116,6 @@
 We don't spend an infinite amount of time on prototyping either, sometimes you start with a trivial model just to have some model, and then you're already building your way all the way towards production, that you're already making the first cut, so to speak. And then iteratively improve the model and push it with each iteration simultaneously in the direction of production. This then becomes Continuous Delivery-like. As a rule, not only the individual model is connected to it, but also many data paths, so you have a model and have already connected a small subset of data sources, but still have 3 other data sources, e.g. something external, such as weather perhaps, and then you successively connect further data sources and integrate them into the model and then the next data source comes and you go another round. So prototyping is not separate from putting it into production. 
 Sometimes customers approach us with a POC and ask if it's feasible. So you can take a data-driven approach. For example, in the area of computer vision, it is not always entirely clear whether a certain usefulness can even be expected for a problem. In that case, we first have a prototyping phase, and we first look in a POC to see whether it works at all, and then we can possibly go through a few cycles until we have an idea at some point. Then you say okay, this could work and then the phase begins where you then bring a prototype towards production. Then you have a clear point defined where it starts. 
 But we've also had other projects where we actually moved toward production right from the start. That means we really built up the complete stack and built in a naïve model at the beginning to map the entire route. You only do that if you're already very sure that you definitely want to do what you're doing and that it's likely to bring something. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">That's actually already the standard, I would say, so that the experimental environment and the prototype remain in place for the time being. And then you continue to develop and always push the last version, or a version where you say, "Okay, that's good now," in the direction of production.
-A model is never finished. That means you always find something to improve it, whether it's a deeper neural network or trying out a different architecture for it. Or you try a new class of model, you just want to find an even better model. The second reason is that you want to connect new data sources. 
-In real projects, you rarely start with the complete data landscape, you usually start with a subset of the possible data and then successively add new data sources. The process is often also very time-consuming, e.g. whether you push data to a data lake first. And then the model has to be able to handle this new data, so you go back to the drawing board. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personally, I'm a big fan of R in combination with Spark when the data is a bit bigger. Also especially feature engineering with Spark SQL, you can do a lot with it. Otherwise, Python is very widespread in the company, about 90% of the people use it. As IDE RStudio or PyCharm/Jupyter notebooks. </t>
   </si>
   <si>
     <t xml:space="preserve">Spontaneously I would say the famous language gap, there I would like to see improvements. That is, I prototype in Python, but the productive system is JVM based, so you have to implement everything in Java or Scala again. Thereby the question arises, how do you do this translation properly? 
@@ -230,7 +213,41 @@
     <t>Q5. Which issues do you encounter when working with Jupyter Notebooks?</t>
   </si>
   <si>
-    <t>"-" means that either the participant couldn't think of an answer spontaneously, or question was left out due to interview length</t>
+    <t xml:space="preserve">If some of the requirements change, like if you have some new additional requirements that your client would like to explore, then you would have to go back to the prototyping phase and start developing from scratch. So, you start a new prototype but incorporate the knowledge and code snippets from the first POC. Then you explore some new ideas on how to deal with the problem, maybe a new approach, a new algorithm or so on. This also happens when your data contains new information, like some new meta data. I also had a case where we worked on a POC but suddenly they came and tell us that it’s not the correct data set. We got data from a completely different source, so different preprocessing and different way of identifying the specific fields and so on. We adapted our original POC to the new situation. Actually, you need to document everything and a lot of times it is also really hard to maintain, like I think this is a challenge because you need to maintain your prototypes which are in Jupyter now and at the same time you have the same thing translated into scripts and deployed to a server into production.  And at the same time, like you are experimenting with the new prototype, you make changes and then you still have to adapt the scripts. This is a challenging part. And people somehow make it like you keep track of what happens, but it requires a lot of effort. Like a lot of capacity, a lot of resources. From one side you develop something new, but you cannot have like an automatic way of translating this directly to scripts. Maybe you also redesign and change the architecture by introducing something in the prototype. This affects the whole architecture of the system which is in production. This is like 2 paces basically. You have one pace which is experimenting and developing new things and the other has to somehow keep up with your pace of experimentation. You have to maintain two different things. What I noticed in like bigger companies: usually those decisions are not taken very fast like there is a moment where the client will ask you to work on something new. Until this is deployed into production, there is some time like it's not happening from one day to another, so I think this is what makes it a little bit smoother. Because you don't have a continuous flow, that new thing. deploying, new thing, deploying. Usually there is some space between those two phases and so this is what helps. 
+</t>
+  </si>
+  <si>
+    <t>That's actually already the standard, I would say, so that the experimental environment and the prototype remain in place for the time being. And then you continue to develop and always push the last version, or a version where you say, "Okay, that's good now," in the direction of production.
+A model is never finished. That means you always find something to improve it, whether it's a deeper neural network or trying out a different architecture for it. Or you try a new class of model, you just want to find an even better model. The second reason is that you want to connect new data sources. 
+In real projects, you rarely start with the complete data landscape, you usually start with a subset of the possible data and then successively add new data sources. The process is often also very time-consuming, e.g. whether you push data to a data lake first. And then the model has to be able to handle this new data, so you go back to the drawing board. [How do you ensure conformance between experimental and production-ready code?] We don't do that, but it would probably make sense. That's the main difficulty you have. The further apart the stack, so to speak, when you build the prototype and then have the production system, the harder it is to customize it.
+A colleague of mine had a project where he defined a JSON DSL where the functions were specified, and then tests were run to make sure that both stacks were basically doing the same thing, and then you had that conformance in terms of the functions. Now an ML pipeline is more than just feature generation, and that's certainly something that has its limitations. It's important to have conformance so that you get the same result. On one side, you're experimenting like crazy trying to find a good model, and if it behaves differently on the other side, you're already taking it a bit ad absurdum. This conformity is very important. We don't have a standard solution for it.</t>
+  </si>
+  <si>
+    <t>already answered in Q1. [Interviewer asks if plugins are used] I use far too few. I don't know if I currently have any installed. For a while I use a plugin where you can collapse sections, so if you work with markups and headings you can collapse them nicely and next to it an overview. But I do a lot with the command line on the side, so also things for which there is certainly a plugin. I use Jupyter Lab really only because I find it cool that I see directly graphical evaluations, but so purely for development I use PyCharm, there you have much more and it is more responsive and therefore I actually prefer to stay in PyCharm.</t>
+  </si>
+  <si>
+    <t>already answered in Q1. [Interviewer asks if plugins are used]  Actually pretty basic. Only if I now and then comes, on what you just do not need to use, so if I rely on Google Collabs or something, then use any additions to work with the file system.
+Otherwise a plugin so that the libraries always reload automatically without me having to restart a kernel.
+Sometimes some additional stuff for rendering. Notebooks sometimes have some audio problems or when rendering a video, it often doesn't work. But that is always specific to the framework that is used, mostly you load some custom solutions in there.</t>
+  </si>
+  <si>
+    <t>already answered in Q1. [Interviewer asks if plugins are used] Only the Black Formatter.</t>
+  </si>
+  <si>
+    <t>So exactly tools: Jupiter Notebook, PyCharm, tracking of experiments with MLFlow typically around environment variable management with Conda or Poetry typically. Typically pre-commit configs with Code Black for codestyling, iSort to structure imports and so on, so mainly if you're working with someone, then mainly so you don't put stupid changes in each other, but on your own you can sometimes be less than consistent. Typically I don't set everything to new every time, but with Cookie-Cutter. For me PyScaffold is too big, it's too heavy, it gives me too much stuff I don't want and puts a lot of files in my repo that I don't need. I prefer to have this very custom mostly tailored to me. [Interviewer asks if Jupyter Notebook plugins are used] I definitely have a number of plugins. So as I said the Auto-Reload Magic is definitely important to me, other than that plugins. What do I have installed? Yes, a few plugins for plotting, plotly express and something that works interactively.
+JupyText and some sublime extension to have automatic keyboard shortcuts in it. Rendering Service especially so a few plugins just for plotting no, that's just the plots are neatly displayed but nothing what extreme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I personally am a fan of VSCode, which is somewhere between editor and IDE There are also Jupyter Notebooks integrated. So I continue to work with Jupyter Notebooks or with Jupyter Lab, which is now becoming more popular I think. I program completely in Python, I haven't used any other language for a long time. And otherwise standard tools like Git, if necessary or mostly some cloud systems for data access or to store results. And otherwise the standard Python libraries like scikit-learn and visualization libraries. [Interviewer asks if plugins are used]  No I have installed some but never used them consistently. </t>
+  </si>
+  <si>
+    <t>already answered in Q1 [Interviewer asks if plugins are used] No, can you recommend some?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personally, I'm a big fan of R in combination with Spark when the data is a bit bigger. Also especially feature engineering with Spark SQL, you can do a lot with it. Otherwise, Python is very widespread in the company, about 90% of the people use it. As IDE RStudio or PyCharm/Jupyter notebooks. [Interviewer asks if plugins are used]  No, I've never used plugins. </t>
+  </si>
+  <si>
+    <t>"-" means that question was left out due to interview length</t>
   </si>
 </sst>
 </file>
@@ -630,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259BB5FF-0D2C-45DC-8271-2F2E6F3B2A2C}">
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,27 +663,27 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:41" ht="395" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -675,13 +692,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -721,22 +738,22 @@
     </row>
     <row r="3" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -776,22 +793,22 @@
     </row>
     <row r="4" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -831,22 +848,22 @@
     </row>
     <row r="5" spans="1:41" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -886,22 +903,22 @@
     </row>
     <row r="6" spans="1:41" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -941,22 +958,22 @@
     </row>
     <row r="7" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -996,22 +1013,22 @@
     </row>
     <row r="8" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1051,22 +1068,22 @@
     </row>
     <row r="9" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1106,22 +1123,22 @@
     </row>
     <row r="10" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1164,7 +1181,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1203,9 +1220,9 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/interview.xlsx
+++ b/interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saydin/Projekte/enginnering-ml-systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684EF64-237F-C747-B770-38D1F60FF318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBA59EB-C1CC-A644-8269-006D3747EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{1FF62C93-9DA4-4762-9A21-096270610EB5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>The Crisp-DM process model is widely used. And that is actually what we use. That is, first understand the data through exploration, set up hypotheses, develop the model, test the model and, if necessary, sharpen the hypotheses or so and go back into the circle. And then deployment, if it is good or build on the deployed model and iteratively bring in improvements. There are also different versions. Sometimes deployment is part of the circle and sometimes it is outside. We don't really do separate prototyping, but it's often the case that it then really goes into production. Of course, some things are discarded, but that is rarely the case, at least in my experience. The first time you do the cycle takes the most time, because you first have to really understand the data and deal with it and initially develop a model. The subsequent cycles are then simply shorter, but yes, basically it's develop, release, notice that maybe there are still weaknesses somewhere, e.g. through monitoring or simply things that you already notice in the development that there might still be potential for improvement. We go back to experimentation when we notice that there are weaknesses in monitoring or that we want to try out a new idea. What can also happen from time to time is that either requirements change or requirements are added. In other words, simply by using the system in live operation, we either recognize or stakeholders recognize that certain aspects are perhaps still missing or should be different. This also leads to further development. It is less common, but also possible, to get new input via conferences or papers and then try out whether existing solutions can be improved as a result. It's actually always about improving metrics and KPIs that you have defined for yourself, and in the best case scenario you go back into further development.</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>"-" means that question was left out due to interview length</t>
+  </si>
+  <si>
+    <t>Interviews were translated with DeepL</t>
   </si>
 </sst>
 </file>
@@ -647,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259BB5FF-0D2C-45DC-8271-2F2E6F3B2A2C}">
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1306,8 +1309,10 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
